--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43596,6 +43596,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>14700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43738,6 +43738,41 @@
         <v>14700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43808,6 +43808,41 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43843,6 +43843,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,43 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43915,6 +43915,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43952,6 +43952,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43987,6 +43987,76 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>10800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44057,6 +44057,41 @@
         <v>10800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44092,6 +44092,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44129,6 +44129,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44166,6 +44166,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44203,6 +44203,78 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>98000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44275,6 +44275,43 @@
         <v>98000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44312,6 +44312,43 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2422"/>
+  <dimension ref="A1:I2423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85824,6 +85824,41 @@
         </is>
       </c>
     </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2423" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2423" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2423" t="n">
+        <v>180100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2423"/>
+  <dimension ref="A1:I2424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85859,6 +85859,43 @@
         <v>180100</v>
       </c>
     </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2424" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2424" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2424" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85896,6 +85896,41 @@
         </is>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2425" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85931,6 +85931,43 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2426" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2426"/>
+  <dimension ref="A1:I2427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85968,6 +85968,43 @@
         </is>
       </c>
     </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2427" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2427" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2427"/>
+  <dimension ref="A1:I2428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86005,6 +86005,43 @@
         </is>
       </c>
     </row>
+    <row r="2428">
+      <c r="A2428" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2428" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2428" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2428" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2428"/>
+  <dimension ref="A1:I2429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86042,6 +86042,43 @@
         </is>
       </c>
     </row>
+    <row r="2429">
+      <c r="A2429" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2429" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2429" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2429" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2429"/>
+  <dimension ref="A1:I2430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86079,6 +86079,41 @@
         </is>
       </c>
     </row>
+    <row r="2430">
+      <c r="A2430" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2430" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2430" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2430" t="n">
+        <v>153700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2430"/>
+  <dimension ref="A1:I2431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86114,6 +86114,43 @@
         <v>153700</v>
       </c>
     </row>
+    <row r="2431">
+      <c r="A2431" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2431" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2431" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2431" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2431"/>
+  <dimension ref="A1:I2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86151,6 +86151,41 @@
         </is>
       </c>
     </row>
+    <row r="2432">
+      <c r="A2432" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2432" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2432" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2432" t="n">
+        <v>50100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2432"/>
+  <dimension ref="A1:I2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86186,6 +86186,41 @@
         <v>50100</v>
       </c>
     </row>
+    <row r="2433">
+      <c r="A2433" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2433" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2433" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2433" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2433"/>
+  <dimension ref="A1:I2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86221,6 +86221,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2434" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2434" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2434" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2434"/>
+  <dimension ref="A1:I2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86256,6 +86256,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2435" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2435" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2435" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2435"/>
+  <dimension ref="A1:I2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86293,6 +86293,41 @@
         </is>
       </c>
     </row>
+    <row r="2436">
+      <c r="A2436" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2436" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2436" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2436" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7176.xlsx
+++ b/data/7176.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2436"/>
+  <dimension ref="A1:I2437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86328,6 +86328,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="E2437" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2437" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2437" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
